--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FZHUNIO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2315D4E-B910-435C-9EBD-A7BAC9F1BB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2553D-74F6-4720-A24E-F39832BFABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>paginas</t>
   </si>
@@ -126,13 +126,25 @@
   </si>
   <si>
     <t>no funciona massivecaptureline</t>
+  </si>
+  <si>
+    <t>Nombre component</t>
+  </si>
+  <si>
+    <t>EffectiveNumeraryReconciliationComponent</t>
+  </si>
+  <si>
+    <t>BankAccountsInsuredComponent</t>
+  </si>
+  <si>
+    <t>AccountsInsuredByFileComponent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +178,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -230,6 +247,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,10 +576,11 @@
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -570,13 +591,16 @@
         <v>21</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -586,16 +610,19 @@
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -605,16 +632,19 @@
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -624,16 +654,19 @@
       <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -643,13 +676,14 @@
       <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,13 +693,14 @@
       <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -675,14 +710,15 @@
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,6 +727,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -854,15 +899,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -870,6 +906,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -887,14 +931,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA315BC3-51C1-4E56-A433-3400DA10E71A}">
   <ds:schemaRefs>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E2553D-74F6-4720-A24E-F39832BFABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F41B9-689D-4E0B-8B4C-A63BB76938BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -727,15 +727,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -899,6 +890,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -906,14 +906,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -931,6 +923,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA315BC3-51C1-4E56-A433-3400DA10E71A}">
   <ds:schemaRefs>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80F41B9-689D-4E0B-8B4C-A63BB76938BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB91947-70CA-444E-ACBF-D7907F7BE32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>paginas</t>
   </si>
@@ -110,9 +110,6 @@
     <t>accountmvmntreport</t>
   </si>
   <si>
-    <t>numerary</t>
-  </si>
-  <si>
     <t>good,numerary</t>
   </si>
   <si>
@@ -138,6 +135,15 @@
   </si>
   <si>
     <t>AccountsInsuredByFileComponent</t>
+  </si>
+  <si>
+    <t>interfacesirsae</t>
+  </si>
+  <si>
+    <t>SirsaePaymentConsultationListComponent</t>
+  </si>
+  <si>
+    <t>se necesita filtros para los siguientes campos como goodId, startData, endDate, banco y estado de movimiento --- endpoint  /interfacesirsae/api/v1/sirsae-state-account-detail falta que retorne el nombre del banco</t>
   </si>
 </sst>
 </file>
@@ -235,21 +241,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,147 +606,152 @@
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="11"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="E3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="11"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
+      <c r="E4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="4" t="s">
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -727,6 +760,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -890,15 +932,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -906,6 +939,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -923,14 +964,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA315BC3-51C1-4E56-A433-3400DA10E71A}">
   <ds:schemaRefs>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB91947-70CA-444E-ACBF-D7907F7BE32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF4E36-4D45-41D6-9628-3766A054874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>paginas</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>se necesita filtros para los siguientes campos como goodId, startData, endDate, banco y estado de movimiento --- endpoint  /interfacesirsae/api/v1/sirsae-state-account-detail falta que retorne el nombre del banco</t>
+  </si>
+  <si>
+    <t>se necesita un filtro para la busqueda de concepto de gastos por descripcion</t>
   </si>
 </sst>
 </file>
@@ -710,7 +713,9 @@
       <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.35">
@@ -760,15 +765,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -932,6 +928,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -939,14 +944,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -964,6 +961,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA315BC3-51C1-4E56-A433-3400DA10E71A}">
   <ds:schemaRefs>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADF4E36-4D45-41D6-9628-3766A054874D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129099E8-308D-44D6-950F-FEF803BE6C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>paginas</t>
   </si>
@@ -147,6 +147,96 @@
   </si>
   <si>
     <t>se necesita un filtro para la busqueda de concepto de gastos por descripcion</t>
+  </si>
+  <si>
+    <t>FREPORTBIENESSPOL</t>
+  </si>
+  <si>
+    <t>Reportes de Pólizas</t>
+  </si>
+  <si>
+    <t>policyreport</t>
+  </si>
+  <si>
+    <t>PORCENTAJES</t>
+  </si>
+  <si>
+    <t>Porcentajes (Supervisión y Vigilancia)</t>
+  </si>
+  <si>
+    <t>survillance</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/percentage-surveillance</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/policies-report</t>
+  </si>
+  <si>
+    <t>USUARIOS</t>
+  </si>
+  <si>
+    <t>Usuarios Administradores</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/user-access</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>FVIGMANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>Solicitudes</t>
+  </si>
+  <si>
+    <t>FVIGBITACORA</t>
+  </si>
+  <si>
+    <t>Bitácora</t>
+  </si>
+  <si>
+    <t>FVIGDATCORREO</t>
+  </si>
+  <si>
+    <t>Configuración de Correos</t>
+  </si>
+  <si>
+    <t>FVIGLIBRETAREG</t>
+  </si>
+  <si>
+    <t>Libreta de Correos</t>
+  </si>
+  <si>
+    <t>supervisiongood</t>
+  </si>
+  <si>
+    <t>survillanceaudit</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/maintenance</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/surveillance-log</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/maintenance-mail-configuration</t>
+  </si>
+  <si>
+    <t>/pages/administrative-processes/email-book-config</t>
+  </si>
+  <si>
+    <t>PoliciesReportComponent</t>
+  </si>
+  <si>
+    <t>PercentagesSurveillanceComponent</t>
+  </si>
+  <si>
+    <t>UserAccessComponent</t>
   </si>
 </sst>
 </file>
@@ -194,12 +284,18 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -244,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -281,6 +377,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +709,7 @@
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -757,6 +857,118 @@
         <v>20</v>
       </c>
       <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="F12" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="F13" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="F14" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="F15" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,6 +977,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -928,15 +1149,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -944,6 +1156,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -957,14 +1177,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129099E8-308D-44D6-950F-FEF803BE6C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9B078-96E0-4081-88FE-3CABBA059F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>paginas</t>
   </si>
@@ -237,13 +237,59 @@
   </si>
   <si>
     <t>UserAccessComponent</t>
+  </si>
+  <si>
+    <t>MaintenanceComponent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">microservicio no funcionando ademas falta rellenar el select de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>procesos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> endpoint no identificado</t>
+    </r>
+  </si>
+  <si>
+    <t>Por ver si se hace</t>
+  </si>
+  <si>
+    <t>esperando que el endpoint /survillance/api/v1/vig-binnacle responda correctamente y no 503</t>
+  </si>
+  <si>
+    <t>SurveillanceLogComponent</t>
+  </si>
+  <si>
+    <t>EmailBookConfigComponent</t>
+  </si>
+  <si>
+    <t>MassiveConversionMainComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el endpoind dejo de funcionar ademas traer relacion delegationNumber y cveprocess ya que solo trae el id </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +328,13 @@
       <sz val="8"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -698,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,7 +881,7 @@
       <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -849,11 +902,13 @@
       <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="6"/>
@@ -876,7 +931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>40</v>
       </c>
@@ -891,6 +946,9 @@
       </c>
       <c r="F10" s="8" t="s">
         <v>43</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -909,8 +967,11 @@
       <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>49</v>
       </c>
@@ -920,12 +981,17 @@
       <c r="C12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="F12" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G12" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
@@ -935,9 +1001,14 @@
       <c r="C13" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="F13" s="8" t="s">
         <v>61</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -965,7 +1036,9 @@
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="F15" s="8" t="s">
         <v>63</v>
       </c>
@@ -977,15 +1050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1149,6 +1213,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1156,14 +1229,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1177,6 +1242,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD9B078-96E0-4081-88FE-3CABBA059F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0599EF2-BA0C-4D81-8C88-5B36EA53FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1050,6 +1050,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1213,15 +1222,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1229,6 +1229,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1242,14 +1250,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0599EF2-BA0C-4D81-8C88-5B36EA53FA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F7241-B9E3-4ED6-839E-F99DF8735511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>Por ver si se hace</t>
   </si>
   <si>
-    <t>esperando que el endpoint /survillance/api/v1/vig-binnacle responda correctamente y no 503</t>
-  </si>
-  <si>
     <t>SurveillanceLogComponent</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">el endpoind dejo de funcionar ademas traer relacion delegationNumber y cveprocess ya que solo trae el id </t>
+  </si>
+  <si>
+    <t>traer la relacion de delegacion</t>
   </si>
 </sst>
 </file>
@@ -752,7 +752,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -903,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>28</v>
@@ -948,7 +948,7 @@
         <v>43</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -991,7 +991,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
@@ -1002,13 +1002,13 @@
         <v>58</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>61</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1037,7 +1037,7 @@
         <v>42</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>63</v>
@@ -1050,15 +1050,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1222,6 +1213,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1229,14 +1229,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,6 +1242,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834F7241-B9E3-4ED6-839E-F99DF8735511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FC48C-6D18-4CCA-91B7-ADA4F6DDAD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,13 +878,13 @@
       <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1050,6 +1050,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1213,15 +1222,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1229,6 +1229,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1242,14 +1250,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4FC48C-6D18-4CCA-91B7-ADA4F6DDAD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA934066-8E38-4158-A8B2-B47FE8B38B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>paginas</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>traer la relacion de delegacion</t>
+  </si>
+  <si>
+    <t>Traer el campo rfc de la tabla comer_clientes atravez del campo idCliente de la tabla TMP_LC_COMER y la relacion del nombre de lote con la columna batchId</t>
   </si>
 </sst>
 </file>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,7 +895,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -905,11 +908,14 @@
       <c r="D7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -1050,15 +1056,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1222,6 +1219,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1229,14 +1235,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1250,6 +1248,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA934066-8E38-4158-A8B2-B47FE8B38B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A1F78-3D10-4731-AA64-908A8F1D7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -755,7 +755,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1056,6 +1056,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1219,15 +1228,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1235,6 +1235,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1248,14 +1256,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A1F78-3D10-4731-AA64-908A8F1D7C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944C7FA-489E-43B6-BB01-9E433AAD1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>paginas</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>SirsaePaymentConsultationListComponent</t>
-  </si>
-  <si>
-    <t>se necesita filtros para los siguientes campos como goodId, startData, endDate, banco y estado de movimiento --- endpoint  /interfacesirsae/api/v1/sirsae-state-account-detail falta que retorne el nombre del banco</t>
   </si>
   <si>
     <t>se necesita un filtro para la busqueda de concepto de gastos por descripcion</t>
@@ -286,6 +283,12 @@
   </si>
   <si>
     <t>Traer el campo rfc de la tabla comer_clientes atravez del campo idCliente de la tabla TMP_LC_COMER y la relacion del nombre de lote con la columna batchId</t>
+  </si>
+  <si>
+    <t>falta la opcion de filtrar por between en el campo movDate, ejemplo filter.movDate=$btw:2023-03-14,2023-03-16</t>
+  </si>
+  <si>
+    <t>NumeraireExchangeFormComponent</t>
   </si>
 </sst>
 </file>
@@ -754,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,16 +868,18 @@
       <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -891,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -906,7 +911,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>28</v>
@@ -915,138 +920,138 @@
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>39</v>
-      </c>
       <c r="D9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>43</v>
-      </c>
       <c r="G10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="G11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D12" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="C14" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D14" s="14"/>
       <c r="F14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1056,15 +1061,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1228,6 +1224,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1235,14 +1240,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1256,6 +1253,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944C7FA-489E-43B6-BB01-9E433AAD1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5B958-29E1-4057-8D29-DAF27F20E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
   <si>
     <t>paginas</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>NumeraireExchangeFormComponent</t>
+  </si>
+  <si>
+    <t>MaintenanceMailConfigurationComponent</t>
+  </si>
+  <si>
+    <t>Verificar el estado de la libreta de direcciones electronicas</t>
   </si>
 </sst>
 </file>
@@ -757,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1038,9 @@
       <c r="C14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
@@ -1052,6 +1060,9 @@
       </c>
       <c r="F15" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF5B958-29E1-4057-8D29-DAF27F20E32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25693247-5A7C-41F4-BC6B-2B397194B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -239,31 +239,6 @@
     <t>MaintenanceComponent</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">microservicio no funcionando ademas falta rellenar el select de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>procesos</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> endpoint no identificado</t>
-    </r>
-  </si>
-  <si>
     <t>Por ver si se hace</t>
   </si>
   <si>
@@ -294,14 +269,17 @@
     <t>MaintenanceMailConfigurationComponent</t>
   </si>
   <si>
-    <t>Verificar el estado de la libreta de direcciones electronicas</t>
+    <t>Verificar el estado de la libreta de direcciones electronicas y activar filtros dinamicos</t>
+  </si>
+  <si>
+    <t>falta ver que donde se encuentra y que hace el store procedure PK_VIGILACIACIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,13 +318,6 @@
       <sz val="8"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -763,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +846,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>18</v>
@@ -902,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -917,7 +888,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>28</v>
@@ -926,7 +897,7 @@
         <v>20</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -965,7 +936,7 @@
         <v>42</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -985,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1005,7 +976,7 @@
         <v>59</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1019,13 +990,13 @@
         <v>57</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1039,13 +1010,13 @@
         <v>58</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
@@ -1056,13 +1027,13 @@
         <v>41</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1072,6 +1043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1235,15 +1215,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1251,6 +1222,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1264,14 +1243,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25693247-5A7C-41F4-BC6B-2B397194B7DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DFEFB0-C7FC-4223-9A87-34CAF82075FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,7 +334,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -372,11 +372,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB1BBCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB1BBCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB1BBCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -417,6 +430,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,13 +748,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -749,7 +765,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -769,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -791,7 +807,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -813,7 +829,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -835,7 +851,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -856,183 +872,192 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="219.6" customHeight="1" thickBot="1">
+      <c r="A6" s="15"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1">
+      <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D8" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
+    <row r="10" spans="1:8" ht="21" thickBot="1">
+      <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+    <row r="11" spans="1:8" ht="31.2" thickBot="1">
+      <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:8" ht="21" thickBot="1">
+      <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:8" ht="31.2" thickBot="1">
+      <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:8" ht="21" thickBot="1">
+      <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+    <row r="15" spans="1:8" ht="31.2" thickBot="1">
+      <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F15" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:8" ht="31.2" thickBot="1">
+      <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D16" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1043,15 +1068,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1215,6 +1231,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1222,14 +1247,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1243,6 +1260,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37DFEFB0-C7FC-4223-9A87-34CAF82075FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878F6BC-AC55-49B5-992F-3C6A6226EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -279,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,10 +751,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -765,7 +765,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -872,7 +872,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="219.6" customHeight="1" thickBot="1">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="219.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -881,7 +881,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -902,7 +902,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
+    <row r="8" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -926,8 +926,8 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
-    <row r="10" spans="1:8" ht="21" thickBot="1">
+    <row r="9" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>36</v>
       </c>
@@ -944,7 +944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.2" thickBot="1">
+    <row r="11" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>39</v>
       </c>
@@ -964,7 +964,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21" thickBot="1">
+    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>44</v>
       </c>
@@ -984,7 +984,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.2" thickBot="1">
+    <row r="13" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>48</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21" thickBot="1">
+    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>50</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2" thickBot="1">
+    <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>52</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="31.2" thickBot="1">
+    <row r="16" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
@@ -1068,6 +1068,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1231,15 +1240,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1247,6 +1247,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1260,14 +1268,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2878F6BC-AC55-49B5-992F-3C6A6226EFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1124A4CC-A41F-4526-8EED-063D91F1EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>paginas</t>
   </si>
@@ -116,9 +116,6 @@
     <t>captureline, massivecaptureline</t>
   </si>
   <si>
-    <t>Estado</t>
-  </si>
-  <si>
     <t>no funciona el ms</t>
   </si>
   <si>
@@ -251,18 +248,9 @@
     <t>MassiveConversionMainComponent</t>
   </si>
   <si>
-    <t xml:space="preserve">el endpoind dejo de funcionar ademas traer relacion delegationNumber y cveprocess ya que solo trae el id </t>
-  </si>
-  <si>
-    <t>traer la relacion de delegacion</t>
-  </si>
-  <si>
     <t>Traer el campo rfc de la tabla comer_clientes atravez del campo idCliente de la tabla TMP_LC_COMER y la relacion del nombre de lote con la columna batchId</t>
   </si>
   <si>
-    <t>falta la opcion de filtrar por between en el campo movDate, ejemplo filter.movDate=$btw:2023-03-14,2023-03-16</t>
-  </si>
-  <si>
     <t>NumeraireExchangeFormComponent</t>
   </si>
   <si>
@@ -273,6 +261,21 @@
   </si>
   <si>
     <t>falta ver que donde se encuentra y que hace el store procedure PK_VIGILACIACIA</t>
+  </si>
+  <si>
+    <t>FVIPORCENTAJE</t>
+  </si>
+  <si>
+    <t>falta que se resuelva la incidencia 684</t>
+  </si>
+  <si>
+    <t>falta que se resuelva la incidencia 708</t>
+  </si>
+  <si>
+    <t>falta que se resuelva la incidencia 651</t>
+  </si>
+  <si>
+    <t>Observacion</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +336,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -372,24 +381,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFB1BBCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFB1BBCC"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFB1BBCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -431,9 +427,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{077DF40D-374E-4725-9A66-C2354546DC8A}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +763,7 @@
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
@@ -776,10 +779,10 @@
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -796,10 +799,10 @@
         <v>22</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>9</v>
@@ -818,10 +821,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>10</v>
@@ -840,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>11</v>
@@ -862,203 +865,197 @@
         <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6" spans="1:8" s="10" customFormat="1" ht="219.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="B9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="E10" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="F10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="B11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>77</v>
+      <c r="G15" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1068,15 +1065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1240,6 +1228,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1247,14 +1244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1268,6 +1257,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1124A4CC-A41F-4526-8EED-063D91F1EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EF50D-8FEA-4077-90ED-03E21C59D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -754,7 +754,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,6 +1065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1228,15 +1237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,6 +1244,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1257,14 +1265,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635EF50D-8FEA-4077-90ED-03E21C59D4E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B984091-C56C-4983-8779-9875216FD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -768,7 +768,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -920,8 +920,8 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -938,7 +938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="21" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -961,7 +961,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -981,7 +981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31.2" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="21" thickBot="1">
       <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="31.2" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="31.2" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
@@ -1065,15 +1065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1237,6 +1228,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,14 +1244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1265,6 +1257,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\f-sigebi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B984091-C56C-4983-8779-9875216FD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64155C1D-EE54-42F0-9E9A-C31A75ADC9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>MaintenanceMailConfigurationComponent</t>
   </si>
   <si>
-    <t>Verificar el estado de la libreta de direcciones electronicas y activar filtros dinamicos</t>
-  </si>
-  <si>
     <t>falta ver que donde se encuentra y que hace el store procedure PK_VIGILACIACIA</t>
   </si>
   <si>
@@ -276,13 +273,16 @@
   </si>
   <si>
     <t>Observacion</t>
+  </si>
+  <si>
+    <t>al 100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -768,7 +768,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,13 +782,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -892,11 +892,11 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -920,8 +920,8 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
-    <row r="9" spans="1:8" ht="21" thickBot="1">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -938,7 +938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" thickBot="1">
+    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -952,16 +952,16 @@
         <v>63</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -981,7 +981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" thickBot="1">
+    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
@@ -998,10 +998,10 @@
         <v>58</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
@@ -1018,10 +1018,10 @@
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="31.2" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="31.2" thickBot="1">
+    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1065,6 +1065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1228,15 +1237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,6 +1244,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1257,14 +1265,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64155C1D-EE54-42F0-9E9A-C31A75ADC9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFBB9C-1312-4A65-923F-1C526F0062F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -1065,15 +1065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1237,6 +1228,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,14 +1244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1265,6 +1257,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADFBB9C-1312-4A65-923F-1C526F0062F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB2AEF-3163-4531-AEF2-CEED4A83244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -768,7 +768,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -920,8 +920,8 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -938,7 +938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="21" thickBot="1">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -961,7 +961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -981,7 +981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31.2" thickBot="1">
       <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="21" thickBot="1">
       <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="31.2" thickBot="1">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="21" thickBot="1">
       <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
@@ -1065,6 +1065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1228,15 +1237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,6 +1244,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1257,14 +1265,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFB2AEF-3163-4531-AEF2-CEED4A83244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2293A-D67C-468D-B953-795532771ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -754,10 +754,10 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
@@ -768,7 +768,7 @@
     <col min="7" max="7" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="2" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="11"/>
     </row>
-    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="3" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
@@ -832,7 +832,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="4" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="11"/>
     </row>
-    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1">
+    <row r="5" spans="1:8" s="10" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1">
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1">
+    <row r="7" spans="1:8" s="4" customFormat="1" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -920,8 +920,8 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1"/>
-    <row r="9" spans="1:8" ht="21" thickBot="1">
+    <row r="8" spans="1:8" s="13" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>35</v>
       </c>
@@ -938,7 +938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21" thickBot="1">
+    <row r="10" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
@@ -961,7 +961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1">
+    <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>43</v>
       </c>
@@ -981,7 +981,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" thickBot="1">
+    <row r="12" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>47</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21" thickBot="1">
+    <row r="13" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2" thickBot="1">
+    <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>51</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21" thickBot="1">
+    <row r="15" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>53</v>
       </c>
@@ -1065,15 +1065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1237,6 +1228,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,14 +1244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1265,6 +1257,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C2293A-D67C-468D-B953-795532771ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EB8CA0-F1EA-4F62-90F7-ABC5E037BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>paginas</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>FVIPORCENTAJE</t>
-  </si>
-  <si>
-    <t>falta que se resuelva la incidencia 684</t>
-  </si>
-  <si>
-    <t>falta que se resuelva la incidencia 708</t>
   </si>
   <si>
     <t>falta que se resuelva la incidencia 651</t>
@@ -754,7 +748,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,7 +776,7 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -892,7 +886,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -958,7 +952,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="18" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -1018,7 +1012,7 @@
         <v>59</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1055,7 +1049,7 @@
         <v>61</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1065,6 +1059,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1228,15 +1231,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1244,6 +1238,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1257,14 +1259,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EB8CA0-F1EA-4F62-90F7-ABC5E037BF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636D8AA7-9ACB-4648-BA9F-FE04656641F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,15 +1059,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1231,6 +1222,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1238,14 +1238,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1259,6 +1251,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636D8AA7-9ACB-4648-BA9F-FE04656641F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451C31A-A0B1-4EC6-8CF6-DFA813AFA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -1059,6 +1059,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1222,15 +1231,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1238,6 +1238,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1251,14 +1259,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/asignaciones.xlsx
+++ b/asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\f-sigebi2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D451C31A-A0B1-4EC6-8CF6-DFA813AFA1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458E21D7-C25B-4E53-8FD9-F3AE55CF78DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BF87A032-DF41-4815-8520-0592C1777C61}"/>
   </bookViews>
@@ -748,7 +748,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1059,15 +1059,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010039E1E462ED92E146BDA8C6EE3E6510EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="8c7358d94f38434d930b304687946edc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c0a1bb40-100d-482c-9e92-ade20f327aab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="495aae5eb407c7acbb2fa756d4a0460a" ns3:_="">
     <xsd:import namespace="c0a1bb40-100d-482c-9e92-ade20f327aab"/>
@@ -1231,6 +1222,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1238,14 +1238,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13EFFB92-C78B-4A5A-8992-27FE58E33A8C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1259,6 +1251,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EF63720-6B71-41F1-9DDE-C7BAD8E96D3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
